--- a/uploads/xlsx/Timetable SE Department (Fall-25 & Spring-26) Version-1.1-updated.xlsx
+++ b/uploads/xlsx/Timetable SE Department (Fall-25 & Spring-26) Version-1.1-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zPythonStuff\Superior Academic Tool\uploads\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A470FE-6BE9-4082-95AB-99EB52DFFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A672C-022B-46D8-971D-2EF23FA47D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="327">
   <si>
     <t>Department fo Software Engineering {Monday to Friday Timetable Fall-25}</t>
   </si>
@@ -148,15 +148,6 @@
     <t>10:30-11:45</t>
   </si>
   <si>
-    <t>11:45 -01:00</t>
-  </si>
-  <si>
-    <t>02:00 - 03:15</t>
-  </si>
-  <si>
-    <t>03:15 - 04:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ist Floor </t>
   </si>
   <si>
@@ -170,15 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">Used in IT Department </t>
-  </si>
-  <si>
-    <t>09:00 - 11:40</t>
-  </si>
-  <si>
-    <t>11:40 - 02:20</t>
-  </si>
-  <si>
-    <t>02:20 - 05:00</t>
   </si>
   <si>
     <t>05:30 - 06:50</t>
@@ -662,9 +644,6 @@
     <t xml:space="preserve">Application of  Information &amp; Communication Technology (Lab)
 BSSE-1E
 Mr. Muhammad Usman Khan  </t>
-  </si>
-  <si>
-    <t>04:30 - 06:50</t>
   </si>
   <si>
     <r>
@@ -1664,6 +1643,42 @@
     <t>Application of Information &amp; Communication Technology (Theory)
 BSSE-1A
 Dr. Hafiz Muhammad Tayyab Khushi</t>
+  </si>
+  <si>
+    <t>12:05-01:25</t>
+  </si>
+  <si>
+    <t>01:30-02:50</t>
+  </si>
+  <si>
+    <t>02:50-04:10</t>
+  </si>
+  <si>
+    <t>04:10-05:30</t>
+  </si>
+  <si>
+    <t>05:30-06:50</t>
+  </si>
+  <si>
+    <t>11:45-01:00</t>
+  </si>
+  <si>
+    <t>02:00-03:15</t>
+  </si>
+  <si>
+    <t>03:15-04:30</t>
+  </si>
+  <si>
+    <t>04:30-06:50</t>
+  </si>
+  <si>
+    <t>09:00-11:40</t>
+  </si>
+  <si>
+    <t>11:40-02:20</t>
+  </si>
+  <si>
+    <t>02:20-05:00</t>
   </si>
 </sst>
 </file>
@@ -4185,12 +4200,105 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4200,56 +4308,26 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4257,6 +4335,336 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="131" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4266,233 +4674,44 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4500,9 +4719,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4515,201 +4731,6 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="131" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -4831,12 +4852,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5140,8 +5155,8 @@
   <dimension ref="A1:AB1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29:I29"/>
+      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5166,10 +5181,10 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="310"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="305"/>
       <c r="K1" s="106"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -5190,20 +5205,20 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="311" t="s">
+      <c r="A2" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
       <c r="K2" s="107"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -5224,18 +5239,18 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="313"/>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="252"/>
+      <c r="A3" s="308"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="258"/>
       <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="315"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
       <c r="K3" s="108"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -5256,18 +5271,18 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="313"/>
-      <c r="B4" s="252"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
+      <c r="A4" s="308"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
       <c r="F4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="317"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
       <c r="K4" s="109"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -5289,10 +5304,10 @@
     </row>
     <row r="5" spans="1:28" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
-      <c r="B5" s="319" t="s">
+      <c r="B5" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="320"/>
+      <c r="C5" s="315"/>
       <c r="D5" s="50" t="s">
         <v>3</v>
       </c>
@@ -5303,19 +5318,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -5368,23 +5383,23 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="331" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="178" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="182"/>
+        <v>294</v>
+      </c>
+      <c r="C7" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="193"/>
       <c r="J7" s="166"/>
       <c r="K7" s="167"/>
       <c r="L7" s="65"/>
@@ -5406,19 +5421,19 @@
       <c r="AB7" s="66"/>
     </row>
     <row r="8" spans="1:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201"/>
+      <c r="A8" s="332"/>
       <c r="B8" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="199"/>
+        <v>295</v>
+      </c>
+      <c r="C8" s="200"/>
+      <c r="D8" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="220"/>
       <c r="J8" s="170"/>
       <c r="K8" s="171"/>
       <c r="L8" s="65"/>
@@ -5440,31 +5455,31 @@
       <c r="AB8" s="66"/>
     </row>
     <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="201"/>
+      <c r="A9" s="332"/>
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="324" t="s">
+      <c r="C9" s="319" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" s="168" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G9" s="169" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="186" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="187"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="242"/>
+        <v>88</v>
+      </c>
+      <c r="H9" s="197" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="198"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="248"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -5484,23 +5499,23 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201"/>
+      <c r="A10" s="332"/>
       <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="325"/>
-      <c r="D10" s="253" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="254"/>
-      <c r="F10" s="257" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="258"/>
-      <c r="H10" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="I10" s="225"/>
+      <c r="C10" s="320"/>
+      <c r="D10" s="259" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="260"/>
+      <c r="F10" s="263" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="264"/>
+      <c r="H10" s="233" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="234"/>
       <c r="J10" s="131"/>
       <c r="K10" s="111"/>
       <c r="L10" s="2"/>
@@ -5522,21 +5537,21 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
+      <c r="A11" s="332"/>
       <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="325"/>
+      <c r="C11" s="320"/>
       <c r="D11" s="112"/>
       <c r="E11" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="203" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" s="204"/>
-      <c r="H11" s="224" t="s">
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="F11" s="201" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="202"/>
+      <c r="H11" s="233" t="s">
+        <v>98</v>
       </c>
       <c r="I11" s="398"/>
       <c r="J11" s="129"/>
@@ -5560,32 +5575,32 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="201"/>
+      <c r="A12" s="332"/>
       <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="321" t="s">
+      <c r="C12" s="316" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="97" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="I12" s="240" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="240"/>
+        <v>274</v>
+      </c>
+      <c r="I12" s="190" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="190"/>
       <c r="K12" s="134"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -5606,25 +5621,25 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="201"/>
+      <c r="A13" s="332"/>
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="334" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="335"/>
-      <c r="F13" s="198" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="199"/>
-      <c r="H13" s="198" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="293"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="342"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="329" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="330"/>
+      <c r="F13" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="220"/>
+      <c r="H13" s="219" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="289"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="337"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -5644,25 +5659,25 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201"/>
+      <c r="A14" s="332"/>
       <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="322"/>
-      <c r="D14" s="228" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="255"/>
-      <c r="F14" s="198" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="199"/>
-      <c r="H14" s="208" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="209"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="244"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="237" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="261"/>
+      <c r="F14" s="219" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="220"/>
+      <c r="H14" s="215" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="216"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="250"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -5682,23 +5697,23 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201"/>
+      <c r="A15" s="332"/>
       <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="322"/>
-      <c r="D15" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="258"/>
-      <c r="G15" s="256" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="256"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="240" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="264"/>
+      <c r="G15" s="262" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="262"/>
       <c r="I15" s="394" t="s">
-        <v>262</v>
-      </c>
-      <c r="J15" s="229"/>
+        <v>255</v>
+      </c>
+      <c r="J15" s="238"/>
       <c r="K15" s="113"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5719,27 +5734,27 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
+      <c r="A16" s="332"/>
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="322"/>
+      <c r="C16" s="317"/>
       <c r="D16" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="224" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="225"/>
+        <v>128</v>
+      </c>
+      <c r="E16" s="233" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="234"/>
       <c r="G16" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="223" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="187"/>
-      <c r="J16" s="251"/>
-      <c r="K16" s="269"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="232" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="198"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="271"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -5759,25 +5774,25 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
+      <c r="A17" s="332"/>
       <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="322"/>
-      <c r="D17" s="234" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="235"/>
-      <c r="F17" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="293"/>
-      <c r="H17" s="264" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="265"/>
-      <c r="J17" s="265"/>
-      <c r="K17" s="266"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="241" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="242"/>
+      <c r="F17" s="197" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="289"/>
+      <c r="H17" s="266" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="267"/>
+      <c r="J17" s="267"/>
+      <c r="K17" s="268"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -5797,27 +5812,27 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
+      <c r="A18" s="332"/>
       <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="322"/>
-      <c r="D18" s="228" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="229"/>
-      <c r="F18" s="224" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="225"/>
-      <c r="H18" s="224" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="225"/>
-      <c r="J18" s="326" t="s">
-        <v>273</v>
-      </c>
-      <c r="K18" s="250"/>
+      <c r="C18" s="317"/>
+      <c r="D18" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="238"/>
+      <c r="F18" s="233" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="234"/>
+      <c r="H18" s="233" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="234"/>
+      <c r="J18" s="321" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="256"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -5837,27 +5852,27 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
+      <c r="A19" s="332"/>
       <c r="B19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="322"/>
-      <c r="D19" s="228" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="229"/>
-      <c r="F19" s="224" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="225"/>
-      <c r="H19" s="224" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="199"/>
-      <c r="J19" s="224" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="298"/>
+      <c r="C19" s="317"/>
+      <c r="D19" s="237" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="238"/>
+      <c r="F19" s="233" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="234"/>
+      <c r="H19" s="233" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="220"/>
+      <c r="J19" s="233" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" s="295"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5877,23 +5892,23 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="201"/>
+      <c r="A20" s="332"/>
       <c r="B20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="322"/>
-      <c r="D20" s="327" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="328"/>
+      <c r="C20" s="317"/>
+      <c r="D20" s="322" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="323"/>
       <c r="F20" s="401" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G20" s="402"/>
-      <c r="H20" s="224" t="s">
-        <v>255</v>
-      </c>
-      <c r="I20" s="225"/>
+      <c r="H20" s="233" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="234"/>
       <c r="J20" s="137"/>
       <c r="K20" s="145"/>
       <c r="L20" s="2"/>
@@ -5915,21 +5930,21 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
+      <c r="A21" s="333"/>
       <c r="B21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="323"/>
-      <c r="D21" s="329" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="330"/>
-      <c r="F21" s="331" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="330"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="333"/>
+      <c r="C21" s="318"/>
+      <c r="D21" s="324" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="325"/>
+      <c r="F21" s="326" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="325"/>
+      <c r="H21" s="327"/>
+      <c r="I21" s="328"/>
       <c r="J21" s="105"/>
       <c r="K21" s="114"/>
       <c r="L21" s="2"/>
@@ -5952,10 +5967,10 @@
     </row>
     <row r="22" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
-      <c r="B22" s="385" t="s">
+      <c r="B22" s="387" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="386"/>
+      <c r="C22" s="388"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -5983,7 +5998,7 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="259" t="s">
+      <c r="A23" s="203" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="75" t="s">
@@ -6012,7 +6027,7 @@
         <v>9</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -6033,21 +6048,21 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="260"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="178" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="182"/>
+      <c r="C24" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
       <c r="J24" s="166"/>
       <c r="K24" s="167"/>
       <c r="L24" s="65"/>
@@ -6069,19 +6084,19 @@
       <c r="AB24" s="66"/>
     </row>
     <row r="25" spans="1:28" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="260"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="164"/>
       <c r="K25" s="165"/>
       <c r="L25" s="65"/>
@@ -6103,29 +6118,29 @@
       <c r="AB25" s="66"/>
     </row>
     <row r="26" spans="1:28" s="126" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="261"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="236" t="s">
+      <c r="C26" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="221" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="252"/>
+      <c r="D26" s="230" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="258"/>
       <c r="F26" s="97" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G26" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="219" t="s">
-        <v>221</v>
-      </c>
-      <c r="I26" s="220"/>
-      <c r="J26" s="267"/>
-      <c r="K26" s="268"/>
+        <v>68</v>
+      </c>
+      <c r="H26" s="228" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="229"/>
+      <c r="J26" s="269"/>
+      <c r="K26" s="270"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -6145,27 +6160,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="261"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="237"/>
-      <c r="D27" s="210" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="211"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="217" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="218"/>
       <c r="F27" s="128" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G27" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="219" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="220"/>
-      <c r="J27" s="249"/>
-      <c r="K27" s="250"/>
+        <v>52</v>
+      </c>
+      <c r="H27" s="228" t="s">
+        <v>233</v>
+      </c>
+      <c r="I27" s="229"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="256"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -6185,25 +6200,25 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="261"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="233" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="233"/>
-      <c r="F28" s="207" t="s">
-        <v>275</v>
-      </c>
-      <c r="G28" s="207"/>
-      <c r="H28" s="218" t="s">
-        <v>292</v>
-      </c>
-      <c r="I28" s="218"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="215"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="240" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="240"/>
+      <c r="F28" s="214" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" s="214"/>
+      <c r="H28" s="227" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" s="227"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="224"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -6223,25 +6238,25 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="261"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="263" t="s">
+      <c r="C29" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="291" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="225"/>
-      <c r="F29" s="240" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="240"/>
-      <c r="H29" s="218" t="s">
-        <v>299</v>
-      </c>
-      <c r="I29" s="226"/>
+      <c r="D29" s="287" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="234"/>
+      <c r="F29" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="190"/>
+      <c r="H29" s="227" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="235"/>
       <c r="J29" s="22"/>
       <c r="K29" s="83"/>
       <c r="L29" s="2"/>
@@ -6263,27 +6278,27 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="261"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="237"/>
-      <c r="D30" s="210" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="227"/>
-      <c r="F30" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="225"/>
-      <c r="H30" s="221" t="s">
-        <v>264</v>
-      </c>
-      <c r="I30" s="222"/>
-      <c r="J30" s="249" t="s">
+      <c r="C30" s="244"/>
+      <c r="D30" s="217" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="236"/>
+      <c r="F30" s="214" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="234"/>
+      <c r="H30" s="230" t="s">
         <v>257</v>
       </c>
-      <c r="K30" s="250"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="255" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" s="256"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -6303,24 +6318,24 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="261"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="237"/>
-      <c r="D31" s="232" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="218"/>
-      <c r="F31" s="230" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="231"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="189" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="227"/>
+      <c r="F31" s="239" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="191"/>
       <c r="H31" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J31" s="136"/>
       <c r="K31" s="98"/>
@@ -6343,26 +6358,26 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="261"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="237"/>
-      <c r="D32" s="225" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="240"/>
-      <c r="F32" s="302" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="302"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="234" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="190"/>
+      <c r="F32" s="299" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="299"/>
       <c r="H32" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="205" t="s">
-        <v>291</v>
-      </c>
-      <c r="J32" s="206"/>
+        <v>121</v>
+      </c>
+      <c r="I32" s="212" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" s="213"/>
       <c r="K32" s="118"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -6383,27 +6398,27 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="261"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="237"/>
-      <c r="D33" s="225" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="224"/>
-      <c r="F33" s="230" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="231"/>
-      <c r="H33" s="240" t="s">
-        <v>229</v>
-      </c>
-      <c r="I33" s="240"/>
-      <c r="J33" s="225" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="350"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="234" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="233"/>
+      <c r="F33" s="239" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="191"/>
+      <c r="H33" s="190" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" s="190"/>
+      <c r="J33" s="234" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="344"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6423,27 +6438,27 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="261"/>
+      <c r="A34" s="205"/>
       <c r="B34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="237"/>
+      <c r="C34" s="244"/>
       <c r="D34" s="146" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E34" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="213"/>
-      <c r="H34" s="303" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="212"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="217"/>
+        <v>58</v>
+      </c>
+      <c r="F34" s="221" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="222"/>
+      <c r="H34" s="300" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="221"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="226"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6463,25 +6478,25 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="261"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="237"/>
+      <c r="C35" s="244"/>
       <c r="D35" s="146" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="218" t="s">
-        <v>309</v>
-      </c>
-      <c r="G35" s="226"/>
-      <c r="H35" s="245" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" s="246"/>
-      <c r="J35" s="247"/>
-      <c r="K35" s="248"/>
+      <c r="F35" s="227" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="235"/>
+      <c r="H35" s="251" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="252"/>
+      <c r="J35" s="253"/>
+      <c r="K35" s="254"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6501,25 +6516,25 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="261"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="238"/>
-      <c r="D36" s="219" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="220"/>
-      <c r="F36" s="251" t="s">
-        <v>320</v>
-      </c>
-      <c r="G36" s="239"/>
-      <c r="H36" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="I36" s="281"/>
-      <c r="J36" s="279"/>
-      <c r="K36" s="280"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="228" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="229"/>
+      <c r="F36" s="257" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" s="246"/>
+      <c r="H36" s="292" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" s="292"/>
+      <c r="J36" s="347"/>
+      <c r="K36" s="348"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6539,25 +6554,25 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="261"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="284" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="285"/>
-      <c r="F37" s="251" t="s">
-        <v>321</v>
-      </c>
-      <c r="G37" s="220"/>
-      <c r="H37" s="251" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="220"/>
+      <c r="D37" s="351" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="352"/>
+      <c r="F37" s="257" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" s="229"/>
+      <c r="H37" s="257" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="229"/>
       <c r="J37" s="45"/>
       <c r="K37" s="113"/>
       <c r="L37" s="2"/>
@@ -6579,25 +6594,25 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="262"/>
+      <c r="A38" s="206"/>
       <c r="B38" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="337" t="s">
-        <v>249</v>
-      </c>
-      <c r="E38" s="338"/>
-      <c r="F38" s="277" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="278"/>
-      <c r="H38" s="282" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="283"/>
+      <c r="D38" s="275" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="276"/>
+      <c r="F38" s="207" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" s="208"/>
+      <c r="H38" s="349" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="350"/>
       <c r="J38" s="104"/>
       <c r="K38" s="116"/>
       <c r="L38" s="2"/>
@@ -6620,10 +6635,10 @@
     </row>
     <row r="39" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="B39" s="270" t="s">
+      <c r="B39" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="252"/>
+      <c r="C39" s="258"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
@@ -6651,7 +6666,7 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="339" t="s">
+      <c r="A40" s="334" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="142" t="s">
@@ -6680,7 +6695,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="64" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -6701,21 +6716,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="340"/>
+      <c r="A41" s="335"/>
       <c r="B41" s="125" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="178" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="182"/>
+        <v>296</v>
+      </c>
+      <c r="C41" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="193"/>
       <c r="J41" s="166"/>
       <c r="K41" s="167"/>
       <c r="L41" s="65"/>
@@ -6737,19 +6752,19 @@
       <c r="AB41" s="66"/>
     </row>
     <row r="42" spans="1:28" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="340"/>
+      <c r="A42" s="335"/>
       <c r="B42" s="125" t="s">
-        <v>303</v>
-      </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="187"/>
+        <v>296</v>
+      </c>
+      <c r="C42" s="200"/>
+      <c r="D42" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="198"/>
       <c r="J42" s="164"/>
       <c r="K42" s="165"/>
       <c r="L42" s="65"/>
@@ -6771,27 +6786,27 @@
       <c r="AB42" s="66"/>
     </row>
     <row r="43" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="237"/>
+      <c r="A43" s="244"/>
       <c r="B43" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="271" t="s">
+      <c r="C43" s="278" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="101" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E43" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="241" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="252"/>
+        <v>103</v>
+      </c>
+      <c r="F43" s="247" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="258"/>
       <c r="H43" s="395" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="293"/>
+        <v>228</v>
+      </c>
+      <c r="I43" s="289"/>
       <c r="J43" s="399"/>
       <c r="K43" s="400"/>
       <c r="L43" s="2"/>
@@ -6813,25 +6828,25 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="237"/>
+      <c r="A44" s="244"/>
       <c r="B44" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="261"/>
-      <c r="D44" s="327" t="s">
-        <v>288</v>
-      </c>
-      <c r="E44" s="327"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="322" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="322"/>
       <c r="F44" s="22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="221" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="221"/>
+        <v>73</v>
+      </c>
+      <c r="H44" s="230" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="230"/>
       <c r="J44" s="22"/>
       <c r="K44" s="118"/>
       <c r="L44" s="2"/>
@@ -6853,29 +6868,29 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="237"/>
+      <c r="A45" s="244"/>
       <c r="B45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="262"/>
-      <c r="D45" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="239"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="246"/>
       <c r="F45" s="88" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" s="275"/>
-      <c r="K45" s="276"/>
+        <v>137</v>
+      </c>
+      <c r="J45" s="282"/>
+      <c r="K45" s="283"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6895,31 +6910,31 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="237"/>
+      <c r="A46" s="244"/>
       <c r="B46" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="272" t="s">
+      <c r="C46" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="327" t="s">
-        <v>304</v>
-      </c>
-      <c r="E46" s="327"/>
+      <c r="D46" s="322" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="322"/>
       <c r="F46" s="22" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G46" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="218" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="341"/>
-      <c r="J46" s="224" t="s">
-        <v>251</v>
-      </c>
-      <c r="K46" s="298"/>
+        <v>113</v>
+      </c>
+      <c r="H46" s="227" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" s="336"/>
+      <c r="J46" s="233" t="s">
+        <v>244</v>
+      </c>
+      <c r="K46" s="295"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6939,23 +6954,23 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="237"/>
+      <c r="A47" s="244"/>
       <c r="B47" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="261"/>
-      <c r="D47" s="228" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="316"/>
-      <c r="F47" s="224" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="225"/>
-      <c r="H47" s="224" t="s">
-        <v>198</v>
-      </c>
-      <c r="I47" s="225"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="237" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="311"/>
+      <c r="F47" s="233" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="234"/>
+      <c r="H47" s="233" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="234"/>
       <c r="J47" s="124"/>
       <c r="K47" s="130"/>
       <c r="L47" s="2"/>
@@ -6977,25 +6992,25 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="237"/>
+      <c r="A48" s="244"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="261"/>
-      <c r="D48" s="228" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="228"/>
-      <c r="F48" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="225"/>
-      <c r="H48" s="286" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="225"/>
-      <c r="J48" s="240"/>
-      <c r="K48" s="292"/>
+      <c r="C48" s="205"/>
+      <c r="D48" s="237" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="237"/>
+      <c r="F48" s="233" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="234"/>
+      <c r="H48" s="272" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="234"/>
+      <c r="J48" s="190"/>
+      <c r="K48" s="288"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7015,26 +7030,26 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="237"/>
+      <c r="A49" s="244"/>
       <c r="B49" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="261"/>
-      <c r="D49" s="228" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="255"/>
+      <c r="C49" s="205"/>
+      <c r="D49" s="237" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="261"/>
       <c r="F49" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="218" t="s">
-        <v>222</v>
-      </c>
-      <c r="H49" s="226"/>
-      <c r="I49" s="287" t="s">
-        <v>269</v>
-      </c>
-      <c r="J49" s="288"/>
+        <v>120</v>
+      </c>
+      <c r="G49" s="227" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="235"/>
+      <c r="I49" s="273" t="s">
+        <v>262</v>
+      </c>
+      <c r="J49" s="274"/>
       <c r="K49" s="113"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -7055,13 +7070,13 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="237"/>
+      <c r="A50" s="244"/>
       <c r="B50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="261"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="274"/>
+      <c r="C50" s="205"/>
+      <c r="D50" s="280"/>
+      <c r="E50" s="281"/>
       <c r="F50" s="31"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
@@ -7087,25 +7102,25 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="237"/>
+      <c r="A51" s="244"/>
       <c r="B51" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="261"/>
+      <c r="C51" s="205"/>
       <c r="D51" s="396" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E51" s="397"/>
-      <c r="F51" s="347" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="348"/>
-      <c r="H51" s="240" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="231"/>
-      <c r="J51" s="301"/>
-      <c r="K51" s="269"/>
+      <c r="F51" s="342" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="343"/>
+      <c r="H51" s="190" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="191"/>
+      <c r="J51" s="298"/>
+      <c r="K51" s="271"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7125,23 +7140,23 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="237"/>
+      <c r="A52" s="244"/>
       <c r="B52" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="261"/>
-      <c r="D52" s="336" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="256"/>
-      <c r="F52" s="345" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="346"/>
-      <c r="H52" s="345" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" s="346"/>
+      <c r="C52" s="205"/>
+      <c r="D52" s="284" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="262"/>
+      <c r="F52" s="340" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="341"/>
+      <c r="H52" s="340" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="341"/>
       <c r="J52" s="89"/>
       <c r="K52" s="119"/>
       <c r="L52" s="2"/>
@@ -7163,25 +7178,25 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="237"/>
+      <c r="A53" s="244"/>
       <c r="B53" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="261"/>
-      <c r="D53" s="225" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="231"/>
-      <c r="F53" s="240" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="231"/>
-      <c r="H53" s="240" t="s">
-        <v>241</v>
-      </c>
-      <c r="I53" s="231"/>
-      <c r="J53" s="294"/>
-      <c r="K53" s="295"/>
+      <c r="C53" s="205"/>
+      <c r="D53" s="234" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="191"/>
+      <c r="F53" s="190" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="191"/>
+      <c r="H53" s="190" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="191"/>
+      <c r="J53" s="290"/>
+      <c r="K53" s="291"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7201,19 +7216,19 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="237"/>
+      <c r="A54" s="244"/>
       <c r="B54" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="262"/>
-      <c r="D54" s="225" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="231"/>
-      <c r="H54" s="240" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" s="231"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="234" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="191"/>
+      <c r="H54" s="190" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="191"/>
       <c r="J54" s="44"/>
       <c r="K54" s="113"/>
       <c r="L54" s="2"/>
@@ -7235,25 +7250,25 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="237"/>
+      <c r="A55" s="244"/>
       <c r="B55" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="240" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="231"/>
-      <c r="F55" s="218" t="s">
-        <v>295</v>
-      </c>
-      <c r="G55" s="226"/>
-      <c r="H55" s="218" t="s">
-        <v>280</v>
-      </c>
-      <c r="I55" s="226"/>
+      <c r="D55" s="190" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="191"/>
+      <c r="F55" s="227" t="s">
+        <v>288</v>
+      </c>
+      <c r="G55" s="235"/>
+      <c r="H55" s="227" t="s">
+        <v>273</v>
+      </c>
+      <c r="I55" s="235"/>
       <c r="J55" s="135"/>
       <c r="K55" s="113"/>
       <c r="L55" s="2"/>
@@ -7275,28 +7290,28 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="238"/>
+      <c r="A56" s="245"/>
       <c r="B56" s="100" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="332" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="333"/>
+      <c r="D56" s="327" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="328"/>
       <c r="F56" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="299" t="s">
-        <v>267</v>
-      </c>
-      <c r="H56" s="300"/>
-      <c r="I56" s="370" t="s">
-        <v>258</v>
-      </c>
-      <c r="J56" s="370"/>
+        <v>58</v>
+      </c>
+      <c r="G56" s="296" t="s">
+        <v>260</v>
+      </c>
+      <c r="H56" s="297"/>
+      <c r="I56" s="372" t="s">
+        <v>251</v>
+      </c>
+      <c r="J56" s="372"/>
       <c r="K56" s="120"/>
       <c r="L56" s="5"/>
       <c r="M56" s="2"/>
@@ -7318,10 +7333,10 @@
     </row>
     <row r="57" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33"/>
-      <c r="B57" s="270" t="s">
+      <c r="B57" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="252"/>
+      <c r="C57" s="258"/>
       <c r="D57" s="25"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -7349,7 +7364,7 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="355" t="s">
+      <c r="A58" s="357" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="71" t="s">
@@ -7378,7 +7393,7 @@
         <v>9</v>
       </c>
       <c r="K58" s="64" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -7399,21 +7414,21 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="356"/>
+      <c r="A59" s="358"/>
       <c r="B59" s="72" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C59" s="154"/>
       <c r="D59" s="403" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E59" s="404"/>
       <c r="F59" s="404"/>
       <c r="G59" s="405"/>
-      <c r="H59" s="218" t="s">
-        <v>279</v>
-      </c>
-      <c r="I59" s="226"/>
+      <c r="H59" s="227" t="s">
+        <v>272</v>
+      </c>
+      <c r="I59" s="235"/>
       <c r="J59" s="155"/>
       <c r="K59" s="156"/>
       <c r="L59" s="65"/>
@@ -7435,15 +7450,15 @@
       <c r="AB59" s="66"/>
     </row>
     <row r="60" spans="1:28" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="356"/>
+      <c r="A60" s="358"/>
       <c r="B60" s="72"/>
       <c r="C60" s="154"/>
-      <c r="D60" s="188" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="189"/>
-      <c r="F60" s="189"/>
-      <c r="G60" s="190"/>
+      <c r="D60" s="176" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="177"/>
+      <c r="F60" s="177"/>
+      <c r="G60" s="178"/>
       <c r="H60" s="157"/>
       <c r="I60" s="172"/>
       <c r="J60" s="163"/>
@@ -7467,25 +7482,25 @@
       <c r="AB60" s="66"/>
     </row>
     <row r="61" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="357"/>
+      <c r="A61" s="359"/>
       <c r="B61" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="343" t="s">
+      <c r="C61" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="304" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" s="305"/>
-      <c r="F61" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="293"/>
-      <c r="H61" s="223" t="s">
-        <v>204</v>
-      </c>
-      <c r="I61" s="293"/>
+      <c r="D61" s="301" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="302"/>
+      <c r="F61" s="232" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" s="289"/>
+      <c r="H61" s="232" t="s">
+        <v>197</v>
+      </c>
+      <c r="I61" s="289"/>
       <c r="J61" s="11"/>
       <c r="K61" s="153"/>
       <c r="L61" s="2"/>
@@ -7507,26 +7522,26 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="357"/>
+      <c r="A62" s="359"/>
       <c r="B62" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="231"/>
-      <c r="D62" s="240" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="231"/>
+      <c r="C62" s="191"/>
+      <c r="D62" s="190" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="191"/>
       <c r="F62" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="240" t="s">
-        <v>239</v>
-      </c>
-      <c r="H62" s="231"/>
-      <c r="I62" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="J62" s="225"/>
+        <v>54</v>
+      </c>
+      <c r="G62" s="190" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="191"/>
+      <c r="I62" s="233" t="s">
+        <v>211</v>
+      </c>
+      <c r="J62" s="234"/>
       <c r="K62" s="132"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7547,30 +7562,30 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="357"/>
+      <c r="A63" s="359"/>
       <c r="B63" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="231"/>
+      <c r="C63" s="191"/>
       <c r="D63" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="240" t="s">
-        <v>274</v>
-      </c>
-      <c r="J63" s="231"/>
+        <v>123</v>
+      </c>
+      <c r="I63" s="190" t="s">
+        <v>267</v>
+      </c>
+      <c r="J63" s="191"/>
       <c r="K63" s="113"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7591,33 +7606,33 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="63" x14ac:dyDescent="0.25">
-      <c r="A64" s="357"/>
+      <c r="A64" s="359"/>
       <c r="B64" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="344" t="s">
+      <c r="C64" s="339" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H64" s="224" t="s">
-        <v>244</v>
-      </c>
-      <c r="I64" s="225"/>
-      <c r="J64" s="224" t="s">
-        <v>247</v>
-      </c>
-      <c r="K64" s="298"/>
+        <v>65</v>
+      </c>
+      <c r="H64" s="233" t="s">
+        <v>237</v>
+      </c>
+      <c r="I64" s="234"/>
+      <c r="J64" s="233" t="s">
+        <v>240</v>
+      </c>
+      <c r="K64" s="295"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7637,23 +7652,23 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="357"/>
+      <c r="A65" s="359"/>
       <c r="B65" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="231"/>
-      <c r="D65" s="353" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="354"/>
-      <c r="F65" s="224" t="s">
-        <v>167</v>
-      </c>
-      <c r="G65" s="225"/>
-      <c r="H65" s="240" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" s="231"/>
+      <c r="C65" s="191"/>
+      <c r="D65" s="355" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="356"/>
+      <c r="F65" s="233" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="234"/>
+      <c r="H65" s="190" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="191"/>
       <c r="J65" s="137"/>
       <c r="K65" s="145"/>
       <c r="L65" s="2"/>
@@ -7675,29 +7690,29 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="357"/>
+      <c r="A66" s="359"/>
       <c r="B66" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="231"/>
-      <c r="D66" s="349" t="s">
-        <v>289</v>
-      </c>
-      <c r="E66" s="232"/>
+      <c r="C66" s="191"/>
+      <c r="D66" s="188" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" s="189"/>
       <c r="F66" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="224" t="s">
-        <v>254</v>
-      </c>
-      <c r="I66" s="225"/>
-      <c r="J66" s="377" t="s">
-        <v>252</v>
-      </c>
-      <c r="K66" s="378"/>
+        <v>85</v>
+      </c>
+      <c r="H66" s="233" t="s">
+        <v>247</v>
+      </c>
+      <c r="I66" s="234"/>
+      <c r="J66" s="379" t="s">
+        <v>245</v>
+      </c>
+      <c r="K66" s="380"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7717,29 +7732,29 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="357"/>
+      <c r="A67" s="359"/>
       <c r="B67" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="231"/>
+      <c r="C67" s="191"/>
       <c r="D67" s="158" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E67" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" s="240" t="s">
-        <v>103</v>
-      </c>
-      <c r="G67" s="231"/>
-      <c r="H67" s="194" t="s">
-        <v>306</v>
-      </c>
-      <c r="I67" s="195"/>
-      <c r="J67" s="392" t="s">
-        <v>192</v>
-      </c>
-      <c r="K67" s="393"/>
+        <v>100</v>
+      </c>
+      <c r="F67" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="191"/>
+      <c r="H67" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="I67" s="183"/>
+      <c r="J67" s="345" t="s">
+        <v>185</v>
+      </c>
+      <c r="K67" s="346"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7759,29 +7774,29 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="357"/>
+      <c r="A68" s="359"/>
       <c r="B68" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="231"/>
-      <c r="D68" s="304" t="s">
-        <v>283</v>
-      </c>
-      <c r="E68" s="305"/>
+      <c r="C68" s="191"/>
+      <c r="D68" s="301" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" s="302"/>
       <c r="F68" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H68" s="224" t="s">
-        <v>92</v>
-      </c>
-      <c r="I68" s="225"/>
-      <c r="J68" s="240" t="s">
-        <v>190</v>
-      </c>
-      <c r="K68" s="350"/>
+        <v>101</v>
+      </c>
+      <c r="H68" s="233" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="234"/>
+      <c r="J68" s="190" t="s">
+        <v>183</v>
+      </c>
+      <c r="K68" s="344"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -7801,23 +7816,23 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="357"/>
+      <c r="A69" s="359"/>
       <c r="B69" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="231"/>
-      <c r="D69" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="225"/>
-      <c r="F69" s="296" t="s">
-        <v>51</v>
-      </c>
-      <c r="G69" s="297"/>
-      <c r="H69" s="296" t="s">
-        <v>51</v>
-      </c>
-      <c r="I69" s="297"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="233" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="234"/>
+      <c r="F69" s="293" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="294"/>
+      <c r="H69" s="293" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" s="294"/>
       <c r="J69" s="137"/>
       <c r="K69" s="145"/>
       <c r="L69" s="2"/>
@@ -7839,27 +7854,27 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
+      <c r="A70" s="359"/>
       <c r="B70" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="359" t="s">
+      <c r="C70" s="361" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="240" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="231"/>
-      <c r="F70" s="218" t="s">
-        <v>296</v>
-      </c>
-      <c r="G70" s="226"/>
-      <c r="H70" s="196" t="s">
-        <v>294</v>
-      </c>
-      <c r="I70" s="197"/>
-      <c r="J70" s="383"/>
-      <c r="K70" s="384"/>
+      <c r="D70" s="190" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="191"/>
+      <c r="F70" s="227" t="s">
+        <v>289</v>
+      </c>
+      <c r="G70" s="235"/>
+      <c r="H70" s="184" t="s">
+        <v>287</v>
+      </c>
+      <c r="I70" s="185"/>
+      <c r="J70" s="385"/>
+      <c r="K70" s="386"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7879,25 +7894,25 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="357"/>
+      <c r="A71" s="359"/>
       <c r="B71" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="231"/>
-      <c r="D71" s="240" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="231"/>
-      <c r="F71" s="240" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" s="231"/>
-      <c r="H71" s="304" t="s">
-        <v>189</v>
-      </c>
-      <c r="I71" s="305"/>
-      <c r="J71" s="375"/>
-      <c r="K71" s="376"/>
+      <c r="C71" s="191"/>
+      <c r="D71" s="190" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="191"/>
+      <c r="F71" s="190" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="191"/>
+      <c r="H71" s="301" t="s">
+        <v>182</v>
+      </c>
+      <c r="I71" s="302"/>
+      <c r="J71" s="377"/>
+      <c r="K71" s="378"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7917,25 +7932,25 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="357"/>
+      <c r="A72" s="359"/>
       <c r="B72" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="240" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="231"/>
-      <c r="F72" s="218" t="s">
+      <c r="D72" s="190" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="191"/>
+      <c r="F72" s="227" t="s">
+        <v>219</v>
+      </c>
+      <c r="G72" s="235"/>
+      <c r="H72" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="G72" s="226"/>
-      <c r="H72" s="240" t="s">
-        <v>233</v>
-      </c>
-      <c r="I72" s="231"/>
+      <c r="I72" s="191"/>
       <c r="J72" s="46"/>
       <c r="K72" s="113"/>
       <c r="L72" s="2"/>
@@ -7957,7 +7972,7 @@
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="358"/>
+      <c r="A73" s="360"/>
       <c r="B73" s="74" t="s">
         <v>24</v>
       </c>
@@ -7965,20 +7980,20 @@
         <v>15</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="370" t="s">
-        <v>300</v>
-      </c>
-      <c r="G73" s="371"/>
+        <v>79</v>
+      </c>
+      <c r="F73" s="372" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" s="373"/>
       <c r="H73" s="104" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I73" s="105" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J73" s="90"/>
       <c r="K73" s="114"/>
@@ -8002,10 +8017,10 @@
     </row>
     <row r="74" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="76"/>
-      <c r="B74" s="306" t="s">
+      <c r="B74" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="307"/>
+      <c r="C74" s="187"/>
       <c r="D74" s="77"/>
       <c r="E74" s="78"/>
       <c r="F74" s="78"/>
@@ -8033,7 +8048,7 @@
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="351" t="s">
+      <c r="A75" s="353" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="13" t="s">
@@ -8050,19 +8065,19 @@
         <v>36</v>
       </c>
       <c r="G75" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" s="380" t="s">
-        <v>43</v>
+        <v>320</v>
+      </c>
+      <c r="H75" s="382" t="s">
+        <v>40</v>
       </c>
       <c r="I75" s="81" t="s">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="J75" s="63" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="K75" s="64" t="s">
-        <v>142</v>
+        <v>323</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -8083,26 +8098,26 @@
       <c r="AB75" s="3"/>
     </row>
     <row r="76" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="352"/>
+      <c r="A76" s="354"/>
       <c r="B76" s="174" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="281" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" s="281"/>
-      <c r="F76" s="281" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" s="267"/>
-      <c r="H76" s="381"/>
-      <c r="I76" s="281" t="s">
-        <v>148</v>
-      </c>
-      <c r="J76" s="281"/>
+        <v>49</v>
+      </c>
+      <c r="D76" s="292" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="292"/>
+      <c r="F76" s="292" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="269"/>
+      <c r="H76" s="383"/>
+      <c r="I76" s="292" t="s">
+        <v>141</v>
+      </c>
+      <c r="J76" s="292"/>
       <c r="K76" s="95"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -8123,24 +8138,24 @@
       <c r="AB76" s="66"/>
     </row>
     <row r="77" spans="1:28" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="352"/>
+      <c r="A77" s="354"/>
       <c r="B77" s="37" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="191" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="192"/>
-      <c r="F77" s="192"/>
-      <c r="G77" s="193"/>
-      <c r="H77" s="381"/>
-      <c r="I77" s="349" t="s">
-        <v>147</v>
-      </c>
-      <c r="J77" s="232"/>
+        <v>49</v>
+      </c>
+      <c r="D77" s="179" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="180"/>
+      <c r="F77" s="180"/>
+      <c r="G77" s="181"/>
+      <c r="H77" s="383"/>
+      <c r="I77" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="J77" s="189"/>
       <c r="K77" s="173"/>
       <c r="L77" s="65"/>
       <c r="M77" s="65"/>
@@ -8161,26 +8176,26 @@
       <c r="AB77" s="66"/>
     </row>
     <row r="78" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="237"/>
+      <c r="A78" s="244"/>
       <c r="B78" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="236" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="365" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="281"/>
-      <c r="F78" s="360" t="s">
-        <v>290</v>
-      </c>
-      <c r="G78" s="361"/>
-      <c r="H78" s="381"/>
-      <c r="I78" s="372" t="s">
-        <v>305</v>
-      </c>
-      <c r="J78" s="373"/>
+      <c r="C78" s="243" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="367" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="292"/>
+      <c r="F78" s="362" t="s">
+        <v>283</v>
+      </c>
+      <c r="G78" s="363"/>
+      <c r="H78" s="383"/>
+      <c r="I78" s="374" t="s">
+        <v>298</v>
+      </c>
+      <c r="J78" s="375"/>
       <c r="K78" s="122"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -8201,24 +8216,24 @@
       <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="237"/>
+      <c r="A79" s="244"/>
       <c r="B79" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="237"/>
-      <c r="D79" s="219" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="368"/>
-      <c r="F79" s="240" t="s">
-        <v>132</v>
-      </c>
-      <c r="G79" s="224"/>
-      <c r="H79" s="381"/>
-      <c r="I79" s="216" t="s">
-        <v>287</v>
-      </c>
-      <c r="J79" s="216"/>
+      <c r="C79" s="244"/>
+      <c r="D79" s="228" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="370"/>
+      <c r="F79" s="190" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="233"/>
+      <c r="H79" s="383"/>
+      <c r="I79" s="225" t="s">
+        <v>280</v>
+      </c>
+      <c r="J79" s="225"/>
       <c r="K79" s="113"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -8239,26 +8254,26 @@
       <c r="AB79" s="3"/>
     </row>
     <row r="80" spans="1:28" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="237"/>
+      <c r="A80" s="244"/>
       <c r="B80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="238"/>
-      <c r="D80" s="219" t="s">
-        <v>246</v>
-      </c>
-      <c r="E80" s="368"/>
+      <c r="C80" s="245"/>
+      <c r="D80" s="228" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="370"/>
       <c r="F80" s="42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G80" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80" s="381"/>
-      <c r="I80" s="379" t="s">
-        <v>159</v>
-      </c>
-      <c r="J80" s="316"/>
+        <v>100</v>
+      </c>
+      <c r="H80" s="383"/>
+      <c r="I80" s="381" t="s">
+        <v>152</v>
+      </c>
+      <c r="J80" s="311"/>
       <c r="K80" s="113"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -8279,26 +8294,26 @@
       <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="237"/>
+      <c r="A81" s="244"/>
       <c r="B81" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="263" t="s">
+      <c r="C81" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="210" t="s">
-        <v>171</v>
-      </c>
-      <c r="E81" s="362"/>
-      <c r="F81" s="224" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" s="225"/>
-      <c r="H81" s="381"/>
-      <c r="I81" s="379" t="s">
-        <v>150</v>
-      </c>
-      <c r="J81" s="316"/>
+      <c r="D81" s="217" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="364"/>
+      <c r="F81" s="233" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" s="234"/>
+      <c r="H81" s="383"/>
+      <c r="I81" s="381" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="311"/>
       <c r="K81" s="113"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -8319,24 +8334,24 @@
       <c r="AB81" s="3"/>
     </row>
     <row r="82" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="237"/>
+      <c r="A82" s="244"/>
       <c r="B82" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="237"/>
-      <c r="D82" s="389" t="s">
-        <v>263</v>
-      </c>
-      <c r="E82" s="390"/>
-      <c r="F82" s="363" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="318"/>
-      <c r="H82" s="381"/>
-      <c r="I82" s="379" t="s">
-        <v>278</v>
-      </c>
-      <c r="J82" s="316"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="391" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="392"/>
+      <c r="F82" s="365" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" s="313"/>
+      <c r="H82" s="383"/>
+      <c r="I82" s="381" t="s">
+        <v>271</v>
+      </c>
+      <c r="J82" s="311"/>
       <c r="K82" s="113"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -8357,26 +8372,26 @@
       <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="237"/>
+      <c r="A83" s="244"/>
       <c r="B83" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="237"/>
-      <c r="D83" s="228" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="318"/>
+      <c r="C83" s="244"/>
+      <c r="D83" s="237" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="313"/>
       <c r="F83" s="91" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G83" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="H83" s="381"/>
-      <c r="I83" s="379" t="s">
-        <v>186</v>
-      </c>
-      <c r="J83" s="316"/>
+        <v>77</v>
+      </c>
+      <c r="H83" s="383"/>
+      <c r="I83" s="381" t="s">
+        <v>179</v>
+      </c>
+      <c r="J83" s="311"/>
       <c r="K83" s="111"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -8397,26 +8412,26 @@
       <c r="AB83" s="3"/>
     </row>
     <row r="84" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="237"/>
+      <c r="A84" s="244"/>
       <c r="B84" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="237"/>
+      <c r="C84" s="244"/>
       <c r="D84" s="85" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" s="365" t="s">
-        <v>115</v>
-      </c>
-      <c r="G84" s="281"/>
-      <c r="H84" s="381"/>
-      <c r="I84" s="379" t="s">
-        <v>214</v>
-      </c>
-      <c r="J84" s="316"/>
+        <v>61</v>
+      </c>
+      <c r="F84" s="367" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" s="292"/>
+      <c r="H84" s="383"/>
+      <c r="I84" s="381" t="s">
+        <v>207</v>
+      </c>
+      <c r="J84" s="311"/>
       <c r="K84" s="113"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -8437,22 +8452,22 @@
       <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="237"/>
+      <c r="A85" s="244"/>
       <c r="B85" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="237"/>
-      <c r="D85" s="228"/>
-      <c r="E85" s="391"/>
-      <c r="F85" s="364" t="s">
-        <v>282</v>
-      </c>
-      <c r="G85" s="316"/>
-      <c r="H85" s="381"/>
-      <c r="I85" s="228" t="s">
-        <v>276</v>
-      </c>
-      <c r="J85" s="316"/>
+      <c r="C85" s="244"/>
+      <c r="D85" s="237"/>
+      <c r="E85" s="393"/>
+      <c r="F85" s="366" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="311"/>
+      <c r="H85" s="383"/>
+      <c r="I85" s="237" t="s">
+        <v>269</v>
+      </c>
+      <c r="J85" s="311"/>
       <c r="K85" s="113"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -8473,22 +8488,22 @@
       <c r="AB85" s="3"/>
     </row>
     <row r="86" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="237"/>
+      <c r="A86" s="244"/>
       <c r="B86" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="237"/>
-      <c r="D86" s="228"/>
-      <c r="E86" s="255"/>
-      <c r="F86" s="366" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" s="367"/>
-      <c r="H86" s="381"/>
-      <c r="I86" s="366" t="s">
-        <v>44</v>
-      </c>
-      <c r="J86" s="367"/>
+      <c r="C86" s="244"/>
+      <c r="D86" s="237"/>
+      <c r="E86" s="261"/>
+      <c r="F86" s="368" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="369"/>
+      <c r="H86" s="383"/>
+      <c r="I86" s="368" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" s="369"/>
       <c r="K86" s="123"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -8509,24 +8524,24 @@
       <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="237"/>
+      <c r="A87" s="244"/>
       <c r="B87" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="237"/>
-      <c r="D87" s="228" t="s">
-        <v>166</v>
-      </c>
-      <c r="E87" s="274"/>
-      <c r="F87" s="360" t="s">
-        <v>307</v>
-      </c>
-      <c r="G87" s="361"/>
-      <c r="H87" s="381"/>
-      <c r="I87" s="228" t="s">
-        <v>253</v>
-      </c>
-      <c r="J87" s="316"/>
+      <c r="C87" s="244"/>
+      <c r="D87" s="237" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="281"/>
+      <c r="F87" s="362" t="s">
+        <v>300</v>
+      </c>
+      <c r="G87" s="363"/>
+      <c r="H87" s="383"/>
+      <c r="I87" s="237" t="s">
+        <v>246</v>
+      </c>
+      <c r="J87" s="311"/>
       <c r="K87" s="113"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -8547,16 +8562,16 @@
       <c r="AB87" s="3"/>
     </row>
     <row r="88" spans="1:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="237"/>
+      <c r="A88" s="244"/>
       <c r="B88" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="237"/>
+      <c r="C88" s="244"/>
       <c r="D88" s="20"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="38"/>
-      <c r="H88" s="381"/>
+      <c r="H88" s="383"/>
       <c r="I88" s="39"/>
       <c r="J88" s="47"/>
       <c r="K88" s="113"/>
@@ -8579,24 +8594,24 @@
       <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="237"/>
+      <c r="A89" s="244"/>
       <c r="B89" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="238"/>
-      <c r="D89" s="228" t="s">
-        <v>243</v>
-      </c>
-      <c r="E89" s="274"/>
-      <c r="F89" s="364" t="s">
-        <v>170</v>
-      </c>
-      <c r="G89" s="316"/>
-      <c r="H89" s="381"/>
-      <c r="I89" s="387" t="s">
-        <v>194</v>
-      </c>
-      <c r="J89" s="388"/>
+      <c r="C89" s="245"/>
+      <c r="D89" s="237" t="s">
+        <v>236</v>
+      </c>
+      <c r="E89" s="281"/>
+      <c r="F89" s="366" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" s="311"/>
+      <c r="H89" s="383"/>
+      <c r="I89" s="389" t="s">
+        <v>187</v>
+      </c>
+      <c r="J89" s="390"/>
       <c r="K89" s="113"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -8617,26 +8632,26 @@
       <c r="AB89" s="3"/>
     </row>
     <row r="90" spans="1:28" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="237"/>
+      <c r="A90" s="244"/>
       <c r="B90" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="221" t="s">
-        <v>205</v>
-      </c>
-      <c r="E90" s="314"/>
-      <c r="F90" s="218" t="s">
-        <v>308</v>
-      </c>
-      <c r="G90" s="226"/>
-      <c r="H90" s="381"/>
-      <c r="I90" s="374" t="s">
-        <v>207</v>
-      </c>
-      <c r="J90" s="316"/>
+      <c r="D90" s="230" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="309"/>
+      <c r="F90" s="227" t="s">
+        <v>301</v>
+      </c>
+      <c r="G90" s="235"/>
+      <c r="H90" s="383"/>
+      <c r="I90" s="376" t="s">
+        <v>200</v>
+      </c>
+      <c r="J90" s="311"/>
       <c r="K90" s="113"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -8657,26 +8672,26 @@
       <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="238"/>
+      <c r="A91" s="245"/>
       <c r="B91" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="289" t="s">
-        <v>265</v>
-      </c>
-      <c r="E91" s="290"/>
-      <c r="F91" s="370" t="s">
-        <v>261</v>
-      </c>
-      <c r="G91" s="371"/>
-      <c r="H91" s="382"/>
-      <c r="I91" s="329" t="s">
-        <v>208</v>
-      </c>
-      <c r="J91" s="369"/>
+      <c r="D91" s="285" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" s="286"/>
+      <c r="F91" s="372" t="s">
+        <v>254</v>
+      </c>
+      <c r="G91" s="373"/>
+      <c r="H91" s="384"/>
+      <c r="I91" s="324" t="s">
+        <v>201</v>
+      </c>
+      <c r="J91" s="371"/>
       <c r="K91" s="114"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -36232,6 +36247,7 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="D59:G59"/>
+    <mergeCell ref="I86:J86"/>
     <mergeCell ref="I89:J89"/>
     <mergeCell ref="I80:J80"/>
     <mergeCell ref="D76:E76"/>
@@ -36248,6 +36264,7 @@
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F86:G86"/>
     <mergeCell ref="C81:C89"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="I91:J91"/>
@@ -36271,7 +36288,7 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="A75:A91"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D65:E65"/>
@@ -36295,7 +36312,7 @@
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A7:A21"/>
     <mergeCell ref="A40:A56"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="H71:I71"/>
@@ -36315,6 +36332,14 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="F70:G70"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H69:I69"/>
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="A2:E4"/>
     <mergeCell ref="G3:J3"/>
@@ -36331,6 +36356,14 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="J48:K48"/>
@@ -36351,32 +36384,6 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="D52:E52"/>
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D45:E45"/>
@@ -36401,6 +36408,24 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A23:A38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H14:I14"/>
@@ -36416,33 +36441,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A23:A38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:I42"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="D77:G77"/>
     <mergeCell ref="H67:I67"/>
@@ -36450,6 +36448,23 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="J45:K45"/>
   </mergeCells>
   <pageMargins left="0.216187305364964" right="0.14099172089019399" top="0.26" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -36461,8 +36476,8 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36477,7 +36492,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="411" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="412"/>
       <c r="C1" s="412"/>
@@ -36487,20 +36502,20 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="406" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="159" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="159"/>
       <c r="D2" s="147" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="E2" s="147" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="F2" s="148" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -36511,7 +36526,7 @@
       <c r="C3" s="127"/>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -36523,7 +36538,7 @@
       <c r="C4" s="127"/>
       <c r="D4" s="11"/>
       <c r="E4" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -36534,10 +36549,10 @@
       </c>
       <c r="C5" s="127"/>
       <c r="D5" s="10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F5" s="149"/>
     </row>
@@ -36548,13 +36563,13 @@
       </c>
       <c r="C6" s="409"/>
       <c r="D6" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F6" s="149" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36564,13 +36579,13 @@
       </c>
       <c r="C7" s="410"/>
       <c r="D7" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F7" s="149" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -36580,10 +36595,10 @@
       </c>
       <c r="C8" s="410"/>
       <c r="D8" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F8" s="150"/>
     </row>
@@ -36594,13 +36609,13 @@
       </c>
       <c r="C9" s="410"/>
       <c r="D9" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F9" s="149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36610,29 +36625,29 @@
       </c>
       <c r="C10" s="410"/>
       <c r="D10" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F10" s="149" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="408"/>
       <c r="B11" s="127" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F11" s="149" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36643,10 +36658,10 @@
       <c r="C12" s="160"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F12" s="149" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36656,13 +36671,13 @@
       </c>
       <c r="C13" s="161"/>
       <c r="D13" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F13" s="149" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -36673,13 +36688,13 @@
       <c r="C14" s="161"/>
       <c r="D14" s="10"/>
       <c r="E14" s="175" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F14" s="149"/>
     </row>
-    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="414" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="415"/>
       <c r="C15" s="415"/>
@@ -36689,20 +36704,20 @@
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="417" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="127"/>
-      <c r="D16" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>47</v>
+      <c r="D16" s="147" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="148" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
@@ -36713,7 +36728,7 @@
       <c r="C17" s="127"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F17" s="82"/>
     </row>
@@ -36724,13 +36739,13 @@
       </c>
       <c r="C18" s="409"/>
       <c r="D18" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36740,10 +36755,10 @@
       </c>
       <c r="C19" s="410"/>
       <c r="D19" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -36754,13 +36769,13 @@
       </c>
       <c r="C20" s="410"/>
       <c r="D20" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36770,13 +36785,13 @@
       </c>
       <c r="C21" s="410"/>
       <c r="D21" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36786,13 +36801,13 @@
       </c>
       <c r="C22" s="410"/>
       <c r="D22" s="10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
@@ -36802,13 +36817,13 @@
       </c>
       <c r="C23" s="127"/>
       <c r="D23" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.25">
@@ -36818,25 +36833,25 @@
       </c>
       <c r="C24" s="127"/>
       <c r="D24" s="162" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E24" s="162" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="127" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C25" s="127"/>
       <c r="D25" s="162"/>
       <c r="E25" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
